--- a/src/test/resources/excel.xlsx
+++ b/src/test/resources/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\goupff.foodordering.selenium_framework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C8100C-C334-4F46-85E2-F0C322EBDD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689EF3D2-CB9A-4909-8D4A-F48A38B9D58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8B758A5F-EE3F-4929-BD1E-1F944534CEDE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8B758A5F-EE3F-4929-BD1E-1F944534CEDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Testdata" sheetId="1" r:id="rId1"/>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C377095-5922-4C23-A566-7264A2E947CE}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:AF1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBCF011-E3AB-438E-A216-B1CE4D4307AA}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/excel.xlsx
+++ b/src/test/resources/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\goupff.foodordering.selenium_framework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689EF3D2-CB9A-4909-8D4A-F48A38B9D58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9DFF20-CE2A-4C4D-B7C6-B82C716FA1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8B758A5F-EE3F-4929-BD1E-1F944534CEDE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B758A5F-EE3F-4929-BD1E-1F944534CEDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Testdata" sheetId="1" r:id="rId1"/>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB98CF0A-4184-4CB9-A90A-DED6C2CD19EF}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD53"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,7 +735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C377095-5922-4C23-A566-7264A2E947CE}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
